--- a/seFramework/src/test/java/excelSheets/TestCase.xlsx
+++ b/seFramework/src/test/java/excelSheets/TestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Keyword</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>password_id</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Login In Application Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Execute</t>
   </si>
 </sst>
 </file>
@@ -454,135 +466,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
